--- a/databaseABP/museum/Data museum.xlsx
+++ b/databaseABP/museum/Data museum.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Pictures\museum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\IF_semester_6\APB\praktikum\Tubes_ABP\databaseABP\museum\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DDE208-93A8-4EDE-A3C1-9CCB4CA495F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t xml:space="preserve">Nama museum </t>
   </si>
@@ -120,13 +121,88 @@
   </si>
   <si>
     <t>Bangunan yang dulunya merupakan gedung pentas ini dimiliki oleh manufaktur rokok terbesar di Indonesia, Sampoerna. Di dalamnya, kamu akan menemukan kumpulan rokok-rokok dari pertama kalinya dibuat hingga rokok modern masa kini.</t>
+  </si>
+  <si>
+    <t>lokasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude </t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>linj_image</t>
+  </si>
+  <si>
+    <t>Jalan Taman Fatahillah No.1, Pinangsia, Kec. Taman Sari, Kota Jakarta Barat, Daerah Khusus Ibukota Jakarta 11110</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/FNVaIGOszVc/maxresdefault.jpg</t>
+  </si>
+  <si>
+    <t>Jalan Medan Merdeka Barat, Central Jakarta</t>
+  </si>
+  <si>
+    <t>https://lonelyplanetimages.imgix.net/a/g/hi/t/d884051dce68d8e1dec12bf7c490f8eb-museum-nasional.jpg</t>
+  </si>
+  <si>
+    <t>Jalan Terusan Sultan Agung, Ngaglik, Kota Batu, Jawa Timur</t>
+  </si>
+  <si>
+    <t>Jalan Raya Campuhan, Sayan, Kabupaten Gianyar, Bali</t>
+  </si>
+  <si>
+    <t>Jalan Boyong, Kaliurang, Hargobinangun, Kabupaten Sleman, Daerah Istimewa Yogyakarta</t>
+  </si>
+  <si>
+    <t>Jalan Dr. Malaiholo, Taman Makmur, Kel. Nusaniwe, Nusaniwe, kEL NUSANIWE, Kec. Nusaniwe, Kota Ambon, Maluku</t>
+  </si>
+  <si>
+    <t>Jalan Diponegoro, Cihaur Geulis, Kota Bandung, Jawa Barat</t>
+  </si>
+  <si>
+    <t>Museum KAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Museum ini bernama Museum Konferensi Asia Afrika. Nama tersebut digunakan untuk mengenang peristiwa Konferensi Asia Afrika yang menjadi Sumber inspirasi dan motivasi bagi bangsa Asia-Afrika. Museum ini dibangun oleh Pemerintah Republik Indonesia dan berada di bawah wewenang Departemen Pendidikan dan Kebudayaan. Sementara pengelolaannya di bawah koordinasi Departemen Luar Negeri dan Pemerintah Daerah Tingkat I Provinsi Jawa Barat. </t>
+  </si>
+  <si>
+    <t>Jalan Sultan Iskandar Muda, Sukaramai, Kec. Baiturrahman, Kota Banda Aceh, Aceh 23116</t>
+  </si>
+  <si>
+    <t>Jalan Asia Afrika No.65, Braga, Kota Bandung, Jawa Barat</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/-4qVdS6BMg3E/Uh0Bn7rCPCI/AAAAAAAAD7s/qKf_glLWlck/s1600/museum+konferensi+asia+afrika+yoshiewafa.blogspot.com.jpg</t>
+  </si>
+  <si>
+    <t>https://authentic-indonesia.com/wp-content/uploads/2020/06/marine-collections-in-siwalima-museum-1024x682.jpg</t>
+  </si>
+  <si>
+    <t>https://www.reisroutes.be/userfiles/fotos/blanco-renaissance-museum_7171_xl.jpg</t>
+  </si>
+  <si>
+    <t>https://akulibur.com/wp-content/uploads/2021/06/museum-ullen-sentalu.jpg</t>
+  </si>
+  <si>
+    <t>https://www.intiwhiz.com/images/planner/MUSEUM%20ANGKUT.jpg</t>
+  </si>
+  <si>
+    <t>https://www.wowkeren.com/display/images/photo/2018/10/03/00226539_6.jpg</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-jgXrKkI3nOs/X2eUaxMhK6I/AAAAAAAAAmg/nfB7xcQ05GAeTy5Hh-TIcxKpSnsR08j6ACLcBGAsYHQ/w320-h180/museum%2Btsunami%2Baceh.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +230,26 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF34495E"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF595959"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -172,10 +268,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -187,8 +284,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -466,11 +569,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,9 +582,11 @@
     <col min="2" max="2" width="39.5546875" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
     <col min="4" max="4" width="50.88671875" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -491,8 +596,23 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -502,8 +622,14 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -513,8 +639,16 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="D3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -524,8 +658,16 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -535,8 +677,14 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -546,8 +694,14 @@
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -557,8 +711,14 @@
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -569,7 +729,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -579,8 +739,9 @@
       <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -590,8 +751,14 @@
       <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
@@ -601,9 +768,32 @@
       <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{3CBB6F21-829A-4522-8F23-4EBCD776D73A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>